--- a/Maddala p. 148.xlsx
+++ b/Maddala p. 148.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Ano_Trim</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>1961 II</t>
+  </si>
+  <si>
+    <t>yt-1</t>
+  </si>
+  <si>
+    <t>yt-2</t>
+  </si>
+  <si>
+    <t>yt-3</t>
+  </si>
+  <si>
+    <t>yt-4</t>
+  </si>
+  <si>
+    <t>yt-5</t>
+  </si>
+  <si>
+    <t>yt-6</t>
+  </si>
+  <si>
+    <t>yt-7</t>
+  </si>
+  <si>
+    <t>yt-8</t>
   </si>
 </sst>
 </file>
@@ -482,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +518,7 @@
     <col min="2" max="4" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +531,32 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,7 +570,7 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -535,8 +583,12 @@
       <c r="D3" s="3">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -549,8 +601,16 @@
       <c r="D4" s="3">
         <v>184.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" ref="E4:E39" si="0">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="F4">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -563,8 +623,20 @@
       <c r="D5" s="3">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>245.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F39" si="1">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="G5">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -577,8 +649,24 @@
       <c r="D6" s="3">
         <v>189.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>248.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G39" si="2">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="H6">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -591,8 +679,28 @@
       <c r="D7" s="3">
         <v>192.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>253.3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>245.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H39" si="3">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="I7">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -605,8 +713,32 @@
       <c r="D8" s="3">
         <v>193.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>248.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>245.8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I39" si="4">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="J8">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -619,8 +751,36 @@
       <c r="D9" s="3">
         <v>194.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>255.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>253.3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>248.8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>245.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J39" si="5">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="K9">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -633,8 +793,40 @@
       <c r="D10" s="3">
         <v>197.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>255.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>253.3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>248.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>245.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K39" si="6">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="L10">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -647,8 +839,40 @@
       <c r="D11" s="3">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>254.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>255.9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>253.3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>248.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>245.8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L39" si="7">C3</f>
+        <v>240.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -661,8 +885,40 @@
       <c r="D12" s="3">
         <v>200.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>254.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>255.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>255.9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>253.3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>248.8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>245.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -675,8 +931,40 @@
       <c r="D13" s="3">
         <v>204.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>254.4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>255.9</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>255.9</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>253.3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>248.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -689,8 +977,40 @@
       <c r="D14" s="3">
         <v>207.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>254.4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>254.4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>255.9</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>255.9</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -703,8 +1023,40 @@
       <c r="D15" s="3">
         <v>209.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>254.4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>254.4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>255.9</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>255.9</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>256.10000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -717,8 +1069,40 @@
       <c r="D16" s="3">
         <v>211.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>271.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>254.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>254.4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>255.9</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -731,8 +1115,40 @@
       <c r="D17" s="3">
         <v>213.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>276.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>254.4</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>254.4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -745,8 +1161,40 @@
       <c r="D18" s="3">
         <v>214.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>271.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>257</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>254.4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -759,8 +1207,40 @@
       <c r="D19" s="3">
         <v>216.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>276.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>271.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -773,8 +1253,40 @@
       <c r="D20" s="3">
         <v>217.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>286.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>276.5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>271.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>263</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -787,8 +1299,40 @@
       <c r="D21" s="3">
         <v>217.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>287.7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>276.5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>271.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>260.89999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -801,8 +1345,40 @@
       <c r="D22" s="3">
         <v>218.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>286.2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>282</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>276.5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>271.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -815,8 +1391,40 @@
       <c r="D23" s="3">
         <v>218.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>287.7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>286.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>276.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -829,8 +1437,40 @@
       <c r="D24" s="3">
         <v>219.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>287.7</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>286.2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -843,8 +1483,40 @@
       <c r="D25" s="3">
         <v>219.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>291</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>287.7</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>286.2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>281.39999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -857,8 +1529,40 @@
       <c r="D26" s="3">
         <v>220.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>293.3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>287.7</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>286.2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -871,8 +1575,40 @@
       <c r="D27" s="3">
         <v>222.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>291.3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>287.7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -885,8 +1621,40 @@
       <c r="D28" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>293.3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>287.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -899,8 +1667,40 @@
       <c r="D29" s="3">
         <v>299.39999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>291.3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>293.3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -913,8 +1713,40 @@
       <c r="D30" s="3">
         <v>232.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>291.3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>293.3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>291.10000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -927,8 +1759,40 @@
       <c r="D31" s="3">
         <v>235.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>291.3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>293.3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>294.60000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -941,8 +1805,40 @@
       <c r="D32" s="3">
         <v>237.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>312.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>291.3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>293.3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>296.10000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -955,8 +1851,40 @@
       <c r="D33" s="3">
         <v>237.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>311.3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>291.3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>293.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -969,8 +1897,40 @@
       <c r="D34" s="3">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>313.2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>312.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -983,8 +1943,40 @@
       <c r="D35" s="3">
         <v>238.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>325.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>313.2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>311.3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>312.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -997,8 +1989,40 @@
       <c r="D36" s="3">
         <v>240.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>320.3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>325.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>313.2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>311.3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>312.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1011,8 +2035,40 @@
       <c r="D37" s="3">
         <v>243.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>320.3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>325.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>313.2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>311.3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>312.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>302.10000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1025,8 +2081,40 @@
       <c r="D38" s="3">
         <v>246.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>320.10000000000002</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>320.3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>325.5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>313.2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>311.3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>312.5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>305.89999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1038,6 +2126,38 @@
       </c>
       <c r="D39" s="3">
         <v>250</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>318.39999999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>320.10000000000002</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>320.3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>325.5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>313.2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>311.3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>312.5</v>
       </c>
     </row>
   </sheetData>

--- a/Maddala p. 148.xlsx
+++ b/Maddala p. 148.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Ano_Trim</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>1961 II</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>y7</t>
+  </si>
+  <si>
+    <t>y8</t>
   </si>
 </sst>
 </file>
@@ -482,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +518,7 @@
     <col min="2" max="4" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +531,32 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -521,8 +569,32 @@
       <c r="D2" s="3">
         <v>182.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -535,8 +607,33 @@
       <c r="D3" s="3">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f>C2</f>
+        <v>238.1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -549,8 +646,34 @@
       <c r="D4" s="3">
         <v>184.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" ref="E4:E39" si="0">C3</f>
+        <v>240.9</v>
+      </c>
+      <c r="F4">
+        <f>E3</f>
+        <v>238.1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -563,8 +686,35 @@
       <c r="D5" s="3">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>245.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:L39" si="1">E4</f>
+        <v>240.9</v>
+      </c>
+      <c r="G5">
+        <f>F4</f>
+        <v>238.1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -577,8 +727,36 @@
       <c r="D6" s="3">
         <v>189.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>248.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="H6">
+        <f>G5</f>
+        <v>238.1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -591,8 +769,37 @@
       <c r="D7" s="3">
         <v>192.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>253.3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="I7">
+        <f>H6</f>
+        <v>238.1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -605,8 +812,38 @@
       <c r="D8" s="3">
         <v>193.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="J8">
+        <f>I7</f>
+        <v>238.1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -619,8 +856,39 @@
       <c r="D9" s="3">
         <v>194.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>255.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="K9">
+        <f>J8</f>
+        <v>238.1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -633,8 +901,40 @@
       <c r="D10" s="3">
         <v>197.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>255.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="L10">
+        <f>K9</f>
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -647,8 +947,40 @@
       <c r="D11" s="3">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>254.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -661,8 +993,40 @@
       <c r="D12" s="3">
         <v>200.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>254.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>245.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -675,8 +1039,40 @@
       <c r="D13" s="3">
         <v>204.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>248.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -689,8 +1085,40 @@
       <c r="D14" s="3">
         <v>207.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -703,8 +1131,40 @@
       <c r="D15" s="3">
         <v>209.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>256.10000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -717,8 +1177,40 @@
       <c r="D16" s="3">
         <v>211.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>271.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -731,8 +1223,40 @@
       <c r="D17" s="3">
         <v>213.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>276.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -745,8 +1269,40 @@
       <c r="D18" s="3">
         <v>214.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -759,8 +1315,40 @@
       <c r="D19" s="3">
         <v>216.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -773,8 +1361,40 @@
       <c r="D20" s="3">
         <v>217.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>286.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -787,8 +1407,40 @@
       <c r="D21" s="3">
         <v>217.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>287.7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>260.89999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -801,8 +1453,40 @@
       <c r="D22" s="3">
         <v>218.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -815,8 +1499,40 @@
       <c r="D23" s="3">
         <v>218.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -829,8 +1545,40 @@
       <c r="D24" s="3">
         <v>219.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -843,8 +1591,40 @@
       <c r="D25" s="3">
         <v>219.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>281.39999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -857,8 +1637,40 @@
       <c r="D26" s="3">
         <v>220.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>293.3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -871,8 +1683,40 @@
       <c r="D27" s="3">
         <v>222.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>291.3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -885,8 +1729,40 @@
       <c r="D28" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>287.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -899,8 +1775,40 @@
       <c r="D29" s="3">
         <v>299.39999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -913,8 +1821,40 @@
       <c r="D30" s="3">
         <v>232.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>291.10000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -927,8 +1867,40 @@
       <c r="D31" s="3">
         <v>235.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>294.60000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -941,8 +1913,40 @@
       <c r="D32" s="3">
         <v>237.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>312.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>296.10000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -955,8 +1959,40 @@
       <c r="D33" s="3">
         <v>237.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>311.3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>293.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -969,8 +2005,40 @@
       <c r="D34" s="3">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>313.2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -983,8 +2051,40 @@
       <c r="D35" s="3">
         <v>238.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>325.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>313.2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -997,8 +2097,40 @@
       <c r="D36" s="3">
         <v>240.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>320.3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>325.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>313.2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1011,8 +2143,40 @@
       <c r="D37" s="3">
         <v>243.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>320.3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>325.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>313.2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>302.10000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1025,8 +2189,40 @@
       <c r="D38" s="3">
         <v>246.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>320.10000000000002</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>320.3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>325.5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>313.2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>305.89999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1038,6 +2234,38 @@
       </c>
       <c r="D39" s="3">
         <v>250</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>318.39999999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>320.10000000000002</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>320.3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>325.5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>313.2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>311.3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
       </c>
     </row>
   </sheetData>

--- a/Maddala p. 148.xlsx
+++ b/Maddala p. 148.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Regressao Ridge" sheetId="5" r:id="rId2"/>
-    <sheet name="lambdas" sheetId="3" r:id="rId3"/>
-    <sheet name="Exercício" sheetId="6" r:id="rId4"/>
+    <sheet name="dadoslags" sheetId="7" r:id="rId2"/>
+    <sheet name="Regressao Ridge" sheetId="5" r:id="rId3"/>
+    <sheet name="lambdas" sheetId="3" r:id="rId4"/>
+    <sheet name="Exercício" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,6 +33,30 @@
     <author>rodri</author>
   </authors>
   <commentList>
+    <comment ref="AA9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+em multicolearidade perfeita o determinante de X 'X=0</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O52" authorId="0" shapeId="0">
       <text>
         <r>
@@ -143,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Ano_Trim</t>
   </si>
@@ -462,13 +487,79 @@
   <si>
     <t>Estime o modelo de regressão ridge com os mesmos parâmetros de lambda para a mesma equação de regressão limitada a 4 defasagens</t>
   </si>
+  <si>
+    <t>Residuo</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>betaX1</t>
+  </si>
+  <si>
+    <t>betaX2</t>
+  </si>
+  <si>
+    <t>betaX3</t>
+  </si>
+  <si>
+    <t>betaX4</t>
+  </si>
+  <si>
+    <t>betaX5</t>
+  </si>
+  <si>
+    <t>betaX6</t>
+  </si>
+  <si>
+    <t>betaX7</t>
+  </si>
+  <si>
+    <t>betaX8</t>
+  </si>
+  <si>
+    <t>betaX9</t>
+  </si>
+  <si>
+    <t>Previsto a C</t>
+  </si>
+  <si>
+    <t>EQM (MQO) =</t>
+  </si>
+  <si>
+    <t>EQM (Ridge) =</t>
+  </si>
+  <si>
+    <t>Ylag1</t>
+  </si>
+  <si>
+    <t>Ylag2</t>
+  </si>
+  <si>
+    <t>Ylag3</t>
+  </si>
+  <si>
+    <t>Ylag4</t>
+  </si>
+  <si>
+    <t>Ylag5</t>
+  </si>
+  <si>
+    <t>Ylag6</t>
+  </si>
+  <si>
+    <t>Ylag7</t>
+  </si>
+  <si>
+    <t>Ylag8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -574,9 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,7 +679,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,20 +700,901 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Soma dos coeficientes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lambdas!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>lambdas!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lambdas!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91938801866933773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91941067953177935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91945581858794867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91950071571477565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91954537291906036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91961191294899436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="455731504"/>
+        <c:axId val="455734640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455731504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455734640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455734640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455731504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258763</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>452791</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381354</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>82725</xdr:rowOff>
+      <xdr:rowOff>74787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -646,7 +1618,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905751" y="7294562"/>
+          <a:off x="6981826" y="7310437"/>
           <a:ext cx="1178278" cy="297038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -780,6 +1752,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234597</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1214,9 +2221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,11 +2785,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="10" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>233.4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>253.3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>248.8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>245.8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>240.9</v>
+      </c>
+      <c r="J2" s="3">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>236.4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>253.3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>248.8</v>
+      </c>
+      <c r="I3" s="3">
+        <v>245.8</v>
+      </c>
+      <c r="J3" s="3">
+        <v>240.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>239</v>
+      </c>
+      <c r="B4" s="3">
+        <v>257</v>
+      </c>
+      <c r="C4" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>253.3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>248.8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>245.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>243.2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="C5" s="3">
+        <v>257</v>
+      </c>
+      <c r="D5" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="I5" s="3">
+        <v>253.3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>248.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>248.7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>263</v>
+      </c>
+      <c r="C6" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>257</v>
+      </c>
+      <c r="E6" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="I6" s="3">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>253.7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>263</v>
+      </c>
+      <c r="D7" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>257</v>
+      </c>
+      <c r="F7" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="I7" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="J7" s="3">
+        <v>256.10000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="B8" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>263</v>
+      </c>
+      <c r="E8" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>257</v>
+      </c>
+      <c r="G8" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>255.9</v>
+      </c>
+      <c r="J8" s="3">
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>261.8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>263</v>
+      </c>
+      <c r="F9" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>257</v>
+      </c>
+      <c r="H9" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>263.2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>282</v>
+      </c>
+      <c r="C10" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>263</v>
+      </c>
+      <c r="G10" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="H10" s="3">
+        <v>257</v>
+      </c>
+      <c r="I10" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>263.7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>282</v>
+      </c>
+      <c r="D11" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>263</v>
+      </c>
+      <c r="H11" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <v>257</v>
+      </c>
+      <c r="J11" s="3">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="B12" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>282</v>
+      </c>
+      <c r="E12" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>263</v>
+      </c>
+      <c r="I12" s="3">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="B13" s="3">
+        <v>291</v>
+      </c>
+      <c r="C13" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>282</v>
+      </c>
+      <c r="F13" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>263</v>
+      </c>
+      <c r="J13" s="3">
+        <v>260.89999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="B14" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>291</v>
+      </c>
+      <c r="D14" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>282</v>
+      </c>
+      <c r="G14" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="B15" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>291</v>
+      </c>
+      <c r="E15" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>282</v>
+      </c>
+      <c r="H15" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="I15" s="3">
+        <v>276.5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="B16" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>291</v>
+      </c>
+      <c r="F16" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>282</v>
+      </c>
+      <c r="I16" s="3">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="J16" s="3">
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>291</v>
+      </c>
+      <c r="G17" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>282</v>
+      </c>
+      <c r="J17" s="3">
+        <v>281.39999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="B18" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="F18" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="G18" s="3">
+        <v>291</v>
+      </c>
+      <c r="H18" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="I18" s="3">
+        <v>286.2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="B19" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="G19" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>291</v>
+      </c>
+      <c r="I19" s="3">
+        <v>287.7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="B20" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="G20" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="H20" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="I20" s="3">
+        <v>291</v>
+      </c>
+      <c r="J20" s="3">
+        <v>287.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>278.7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="D21" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="E21" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="H21" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="I21" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>283.8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E22" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="I22" s="3">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="J22" s="3">
+        <v>291.10000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>289.7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="F23" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G23" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="J23" s="3">
+        <v>294.60000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>290.8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="E24" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="F24" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="G24" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>293.3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>296.10000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>292.8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="G25" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="H25" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="I25" s="3">
+        <v>291.3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>293.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="B26" s="3">
+        <v>325.5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="G26" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="H26" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I26" s="3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="J26" s="3">
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>299.5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>320.3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>325.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="H27" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="I27" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="J27" s="3">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="B28" s="3">
+        <v>321</v>
+      </c>
+      <c r="C28" s="3">
+        <v>320.3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>325.5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="I28" s="3">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="J28" s="3">
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="B29" s="3">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>321</v>
+      </c>
+      <c r="D29" s="3">
+        <v>320.3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>325.5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="J29" s="3">
+        <v>302.10000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>297</v>
+      </c>
+      <c r="B30" s="3">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="C30" s="3">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="D30" s="3">
+        <v>321</v>
+      </c>
+      <c r="E30" s="3">
+        <v>320.3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>325.5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="J30" s="3">
+        <v>305.89999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="B31" s="3">
+        <v>324.8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="D31" s="3">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="E31" s="3">
+        <v>321</v>
+      </c>
+      <c r="F31" s="3">
+        <v>320.3</v>
+      </c>
+      <c r="G31" s="3">
+        <v>325.5</v>
+      </c>
+      <c r="H31" s="3">
+        <v>313.2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>311.3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>312.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Y90"/>
+  <dimension ref="A3:AA90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,38 +3808,39 @@
     <col min="13" max="13" width="4.7265625" customWidth="1"/>
     <col min="14" max="14" width="1.6328125" customWidth="1"/>
     <col min="16" max="25" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:27" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>59</v>
       </c>
       <c r="P3" s="3">
@@ -1857,7 +3875,7 @@
         <v>8240.2000000000007</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <f>Dados!C10</f>
         <v>233.4</v>
@@ -1932,7 +3950,7 @@
         <v>2429851.2600000007</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f>Dados!C11</f>
         <v>236.4</v>
@@ -2007,7 +4025,7 @@
         <v>2411005.41</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <f>Dados!C12</f>
         <v>239</v>
@@ -2082,7 +4100,7 @@
         <v>2394088.3099999996</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f>Dados!C13</f>
         <v>243.2</v>
@@ -2157,7 +4175,7 @@
         <v>2376547.42</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f>Dados!C14</f>
         <v>248.7</v>
@@ -2235,7 +4253,7 @@
         <v>2357989.3000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f>Dados!C15</f>
         <v>253.7</v>
@@ -2309,8 +4327,12 @@
       <c r="Y9" s="3">
         <v>2338463.5699999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="AA9">
+        <f>MDETERM(P3:Y12)</f>
+        <v>1.8642535473213508E+25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <f>Dados!C16</f>
         <v>259.89999999999998</v>
@@ -2385,7 +4407,7 @@
         <v>2316376.2199999997</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>Dados!C17</f>
         <v>261.8</v>
@@ -2460,7 +4482,7 @@
         <v>2296768.5699999998</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f>Dados!C18</f>
         <v>263.2</v>
@@ -2535,7 +4557,7 @@
         <v>2276858.3399999994</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f>Dados!C19</f>
         <v>263.7</v>
@@ -2580,7 +4602,7 @@
         <v>254.4</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f>Dados!C20</f>
         <v>263.39999999999998</v>
@@ -2625,7 +4647,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f>Dados!C21</f>
         <v>266.89999999999998</v>
@@ -2701,7 +4723,7 @@
         <v>2.2015623670519992E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f>Dados!C22</f>
         <v>268.89999999999998</v>
@@ -3953,7 +5975,7 @@
         <v>2314385.75</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <f>Dados!C39</f>
         <v>301.60000000000002</v>
@@ -4028,7 +6050,7 @@
         <v>2292403.58</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="P34" s="3">
         <v>2272865.1999999993</v>
       </c>
@@ -4060,7 +6082,38 @@
         <v>2272865.1999999993</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C35" s="3">
+        <f t="array" ref="C35:L35">TRANSPOSE(P81:P90)</f>
+        <v>4.9116736402284005</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.56213749094376908</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.38451150540277013</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2.7771862939516723E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1.0054136586177265E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-0.22221350740892376</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2.6147286950617854E-2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-0.22259834693977609</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.21050978694984224</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.16339997069735546</v>
+      </c>
       <c r="P35" s="3">
         <v>2253113.8799999994</v>
       </c>
@@ -4092,1244 +6145,1629 @@
         <v>2253113.8799999994</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="P37">
         <f t="array" ref="P37:P46">MMULT(P15:Y24,P26:Y35)</f>
         <v>4.97792693660449</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P38">
         <v>0.56185390937162083</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:B67" si="0">$C$35+$D$35*D4+$E$35*E4+$F$35*F4+$G$35*G4+$H$35*H4+$I$35*I4+$J$35*J4+$K$35*K4+$L$35*L4</f>
+        <v>235.96933150348815</v>
+      </c>
+      <c r="C39" s="3">
+        <f>B4-B39</f>
+        <v>-2.5693315034881437</v>
+      </c>
       <c r="P39">
         <v>0.38448459780647681</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="0"/>
+        <v>235.7112628764215</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:C68" si="1">B5-B40</f>
+        <v>0.68873712357850536</v>
+      </c>
       <c r="P40">
         <v>2.7832325812596537E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
+        <v>237.67931431944717</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3206856805528275</v>
+      </c>
       <c r="P41">
         <v>-9.8553422850500283E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="0"/>
+        <v>241.69545077759915</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5045492224008399</v>
+      </c>
       <c r="P42">
         <v>-0.22229186844924698</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="0"/>
+        <v>246.15030842539369</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5496915746062996</v>
+      </c>
       <c r="P43">
         <v>2.6269454397606751E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="0"/>
+        <v>252.19431780023828</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5056821997617078</v>
+      </c>
       <c r="P44">
         <v>-0.22304207289562328</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="0"/>
+        <v>258.01592523737452</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8840747626254597</v>
+      </c>
       <c r="P45">
         <v>0.21052444148517679</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="0"/>
+        <v>261.79348920491987</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5107950801461811E-3</v>
+      </c>
       <c r="P46">
         <v>0.16361257342578028</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="P48" s="7">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="0"/>
+        <v>262.87974762513397</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32025237486601554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="0"/>
+        <v>263.40252981843707</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2974701815629146</v>
+      </c>
+      <c r="P48" s="6">
         <f t="array" ref="P48:Y57">MMULT(P3:Y12,P15:Y24)</f>
         <v>1.0000000000000568</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="6">
         <v>-3.5527136788005009E-15</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="6">
         <v>3.5527136788005009E-15</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S48" s="6">
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="6">
         <v>-5.773159728050814E-15</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="6">
         <v>-1.0658141036401503E-14</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="6">
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="W48" s="7">
+      <c r="W48" s="6">
         <v>3.5527136788005009E-15</v>
       </c>
-      <c r="X48" s="7">
+      <c r="X48" s="6">
         <v>0</v>
       </c>
-      <c r="Y48" s="7">
+      <c r="Y48" s="6">
         <v>-7.1054273576010019E-15</v>
       </c>
     </row>
-    <row r="49" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P49" s="7">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="0"/>
+        <v>265.71763819241539</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.3176381924154157</v>
+      </c>
+      <c r="P49" s="6">
         <v>7.2759576141834259E-12</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="6">
         <v>0.99999999999909051</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="6">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="6">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="6">
         <v>1.1368683772161603E-12</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="6">
         <v>0</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="6">
         <v>-4.5474735088646412E-13</v>
       </c>
-      <c r="W49" s="7">
+      <c r="W49" s="6">
         <v>0</v>
       </c>
-      <c r="X49" s="7">
+      <c r="X49" s="6">
         <v>0</v>
       </c>
-      <c r="Y49" s="7">
+      <c r="Y49" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P50" s="7">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="0"/>
+        <v>266.48920325080388</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41079674919609488</v>
+      </c>
+      <c r="P50" s="6">
         <v>-7.2759576141834259E-12</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="6">
         <v>1.8189894035458565E-12</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="6">
         <v>0.99999999999681677</v>
       </c>
-      <c r="S50" s="7">
+      <c r="S50" s="6">
         <v>2.2737367544323206E-12</v>
       </c>
-      <c r="T50" s="7">
+      <c r="T50" s="6">
         <v>-2.6147972675971687E-12</v>
       </c>
-      <c r="U50" s="7">
+      <c r="U50" s="6">
         <v>0</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="6">
         <v>0</v>
       </c>
-      <c r="W50" s="7">
+      <c r="W50" s="6">
         <v>-1.8189894035458565E-12</v>
       </c>
-      <c r="X50" s="7">
+      <c r="X50" s="6">
         <v>3.637978807091713E-12</v>
       </c>
-      <c r="Y50" s="7">
+      <c r="Y50" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P51" s="7">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="0"/>
+        <v>268.82801038292661</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1989617073370482E-2</v>
+      </c>
+      <c r="P51" s="6">
         <v>-7.2759576141834259E-12</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="6">
         <v>0</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="6">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="S51" s="7">
+      <c r="S51" s="6">
         <v>0.99999999999818101</v>
       </c>
-      <c r="T51" s="7">
+      <c r="T51" s="6">
         <v>7.9580786405131221E-13</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="6">
         <v>-2.7284841053187847E-12</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="6">
         <v>2.2737367544323206E-12</v>
       </c>
-      <c r="W51" s="7">
+      <c r="W51" s="6">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="X51" s="7">
+      <c r="X51" s="6">
         <v>3.637978807091713E-12</v>
       </c>
-      <c r="Y51" s="7">
+      <c r="Y51" s="6">
         <v>-1.8189894035458565E-12</v>
       </c>
     </row>
-    <row r="52" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="O52" t="s">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="0"/>
+        <v>271.34361712131602</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.94361712131603781</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="6">
         <v>-1.4551915228366852E-11</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="6">
         <v>2.2737367544323206E-12</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="6">
         <v>-2.2737367544323206E-12</v>
       </c>
-      <c r="S52" s="7">
+      <c r="S52" s="6">
         <v>1.3642420526593924E-12</v>
       </c>
-      <c r="T52" s="7">
+      <c r="T52" s="6">
         <v>0.99999999999943157</v>
       </c>
-      <c r="U52" s="7">
+      <c r="U52" s="6">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="V52" s="7">
+      <c r="V52" s="6">
         <v>0</v>
       </c>
-      <c r="W52" s="7">
+      <c r="W52" s="6">
         <v>-9.0949470177292824E-13</v>
       </c>
-      <c r="X52" s="7">
+      <c r="X52" s="6">
         <v>7.2759576141834259E-12</v>
       </c>
-      <c r="Y52" s="7">
+      <c r="Y52" s="6">
         <v>-3.637978807091713E-12</v>
       </c>
     </row>
-    <row r="53" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P53" s="7">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="0"/>
+        <v>274.99364930765722</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.5936493076572447</v>
+      </c>
+      <c r="P53" s="6">
         <v>2.9103830456733704E-11</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="6">
         <v>-4.5474735088646412E-13</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="6">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="S53" s="7">
+      <c r="S53" s="6">
         <v>-4.5474735088646412E-13</v>
       </c>
-      <c r="T53" s="7">
+      <c r="T53" s="6">
         <v>-1.2505552149377763E-12</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="6">
         <v>1.0000000000004547</v>
       </c>
-      <c r="V53" s="7">
+      <c r="V53" s="6">
         <v>0</v>
       </c>
-      <c r="W53" s="7">
+      <c r="W53" s="6">
         <v>-1.8189894035458565E-12</v>
       </c>
-      <c r="X53" s="7">
+      <c r="X53" s="6">
         <v>0</v>
       </c>
-      <c r="Y53" s="7">
+      <c r="Y53" s="6">
         <v>1.8189894035458565E-12</v>
       </c>
     </row>
-    <row r="54" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P54" s="7">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="0"/>
+        <v>273.39059672516493</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.2905967251649031</v>
+      </c>
+      <c r="P54" s="6">
         <v>2.9103830456733704E-11</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="6">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="6">
         <v>-1.3642420526593924E-12</v>
       </c>
-      <c r="S54" s="7">
+      <c r="S54" s="6">
         <v>1.3642420526593924E-12</v>
       </c>
-      <c r="T54" s="7">
+      <c r="T54" s="6">
         <v>-2.5011104298755527E-12</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U54" s="6">
         <v>2.2737367544323206E-12</v>
       </c>
-      <c r="V54" s="7">
+      <c r="V54" s="6">
         <v>0.99999999999772626</v>
       </c>
-      <c r="W54" s="7">
+      <c r="W54" s="6">
         <v>3.637978807091713E-12</v>
       </c>
-      <c r="X54" s="7">
+      <c r="X54" s="6">
         <v>-3.637978807091713E-12</v>
       </c>
-      <c r="Y54" s="7">
+      <c r="Y54" s="6">
         <v>3.637978807091713E-12</v>
       </c>
     </row>
-    <row r="55" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P55" s="7">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="0"/>
+        <v>271.90850610790153</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.0085061079015532</v>
+      </c>
+      <c r="P55" s="6">
         <v>1.4551915228366852E-11</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="6">
         <v>-1.3642420526593924E-12</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="6">
         <v>2.2737367544323206E-12</v>
       </c>
-      <c r="S55" s="7">
+      <c r="S55" s="6">
         <v>0</v>
       </c>
-      <c r="T55" s="7">
+      <c r="T55" s="6">
         <v>-1.0231815394945443E-12</v>
       </c>
-      <c r="U55" s="7">
+      <c r="U55" s="6">
         <v>-2.2737367544323206E-12</v>
       </c>
-      <c r="V55" s="7">
+      <c r="V55" s="6">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="W55" s="7">
+      <c r="W55" s="6">
         <v>1.0000000000027285</v>
       </c>
-      <c r="X55" s="7">
+      <c r="X55" s="6">
         <v>3.637978807091713E-12</v>
       </c>
-      <c r="Y55" s="7">
+      <c r="Y55" s="6">
         <v>1.8189894035458565E-12</v>
       </c>
     </row>
-    <row r="56" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P56" s="7">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>18</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="0"/>
+        <v>271.26975687942922</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.36975687942924651</v>
+      </c>
+      <c r="P56" s="6">
         <v>7.2759576141834259E-12</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="6">
         <v>-4.5474735088646412E-13</v>
       </c>
-      <c r="R56" s="7">
+      <c r="R56" s="6">
         <v>-4.5474735088646412E-13</v>
       </c>
-      <c r="S56" s="7">
+      <c r="S56" s="6">
         <v>1.8189894035458565E-12</v>
       </c>
-      <c r="T56" s="7">
+      <c r="T56" s="6">
         <v>-1.4779288903810084E-12</v>
       </c>
-      <c r="U56" s="7">
+      <c r="U56" s="6">
         <v>4.5474735088646412E-13</v>
       </c>
-      <c r="V56" s="7">
+      <c r="V56" s="6">
         <v>2.2737367544323206E-12</v>
       </c>
-      <c r="W56" s="7">
+      <c r="W56" s="6">
         <v>4.5474735088646412E-12</v>
       </c>
-      <c r="X56" s="7">
+      <c r="X56" s="6">
         <v>1</v>
       </c>
-      <c r="Y56" s="7">
+      <c r="Y56" s="6">
         <v>-3.637978807091713E-12</v>
       </c>
     </row>
-    <row r="57" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P57" s="7">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="0"/>
+        <v>276.52155103840482</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.1215510384048457</v>
+      </c>
+      <c r="P57" s="6">
         <v>7.2759576141834259E-12</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="6">
         <v>0</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="6">
         <v>-1.3642420526593924E-12</v>
       </c>
-      <c r="S57" s="7">
+      <c r="S57" s="6">
         <v>1.3642420526593924E-12</v>
       </c>
-      <c r="T57" s="7">
+      <c r="T57" s="6">
         <v>-3.4106051316484809E-13</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="6">
         <v>0</v>
       </c>
-      <c r="V57" s="7">
+      <c r="V57" s="6">
         <v>-9.0949470177292824E-13</v>
       </c>
-      <c r="W57" s="7">
+      <c r="W57" s="6">
         <v>1.8189894035458565E-12</v>
       </c>
-      <c r="X57" s="7">
+      <c r="X57" s="6">
         <v>-3.637978807091713E-12</v>
       </c>
-      <c r="Y57" s="7">
+      <c r="Y57" s="6">
         <v>0.99999999999818101</v>
       </c>
     </row>
-    <row r="59" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P59" s="7">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="0"/>
+        <v>281.06399462179303</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.3639946217930401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="0"/>
+        <v>285.02614796350252</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.2261479635025125</v>
+      </c>
+      <c r="P59" s="6">
         <f>$O$60*P48</f>
         <v>2.0000000000001137E-3</v>
       </c>
-      <c r="Q59" s="7">
-        <f t="shared" ref="Q59:Y59" si="0">$O$60*Q48</f>
+      <c r="Q59" s="6">
+        <f t="shared" ref="Q59:Y59" si="2">$O$60*Q48</f>
         <v>-7.105427357601002E-18</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="6">
+        <f t="shared" si="2"/>
+        <v>7.105427357601002E-18</v>
+      </c>
+      <c r="S59" s="6">
+        <f t="shared" si="2"/>
+        <v>3.552713678800501E-18</v>
+      </c>
+      <c r="T59" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.1546319456101629E-17</v>
+      </c>
+      <c r="U59" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.1316282072803006E-17</v>
+      </c>
+      <c r="V59" s="6">
+        <f t="shared" si="2"/>
+        <v>3.552713678800501E-18</v>
+      </c>
+      <c r="W59" s="6">
+        <f t="shared" si="2"/>
+        <v>7.105427357601002E-18</v>
+      </c>
+      <c r="X59" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.4210854715202004E-17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60" s="3">
         <f t="shared" si="0"/>
-        <v>7.105427357601002E-18</v>
-      </c>
-      <c r="S59" s="7">
-        <f t="shared" si="0"/>
-        <v>3.552713678800501E-18</v>
-      </c>
-      <c r="T59" s="7">
-        <f t="shared" si="0"/>
-        <v>-1.1546319456101629E-17</v>
-      </c>
-      <c r="U59" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.1316282072803006E-17</v>
-      </c>
-      <c r="V59" s="7">
-        <f t="shared" si="0"/>
-        <v>3.552713678800501E-18</v>
-      </c>
-      <c r="W59" s="7">
-        <f t="shared" si="0"/>
-        <v>7.105427357601002E-18</v>
-      </c>
-      <c r="X59" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="7">
-        <f t="shared" si="0"/>
-        <v>-1.4210854715202004E-17</v>
-      </c>
-    </row>
-    <row r="60" spans="14:25" x14ac:dyDescent="0.35">
+        <v>291.3548698414138</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.654869841413813</v>
+      </c>
       <c r="N60" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="7">
         <v>2E-3</v>
       </c>
-      <c r="P60" s="7">
-        <f t="shared" ref="P60:Y60" si="1">$O$60*P49</f>
+      <c r="P60" s="6">
+        <f t="shared" ref="P60:Y60" si="3">$O$60*P49</f>
         <v>1.4551915228366852E-14</v>
       </c>
-      <c r="Q60" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q60" s="6">
+        <f t="shared" si="3"/>
         <v>1.9999999999981812E-3</v>
       </c>
-      <c r="R60" s="7">
-        <f t="shared" si="1"/>
+      <c r="R60" s="6">
+        <f t="shared" si="3"/>
         <v>9.0949470177292826E-16</v>
       </c>
-      <c r="S60" s="7">
-        <f t="shared" si="1"/>
+      <c r="S60" s="6">
+        <f t="shared" si="3"/>
         <v>9.0949470177292826E-16</v>
       </c>
-      <c r="T60" s="7">
-        <f t="shared" si="1"/>
+      <c r="T60" s="6">
+        <f t="shared" si="3"/>
         <v>2.2737367544323206E-15</v>
       </c>
-      <c r="U60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.0949470177292826E-16</v>
-      </c>
-      <c r="W60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P61" s="7">
-        <f t="shared" ref="P61:Y61" si="2">$O$60*P50</f>
-        <v>-1.4551915228366852E-14</v>
-      </c>
-      <c r="Q61" s="7">
-        <f t="shared" si="2"/>
-        <v>3.637978807091713E-15</v>
-      </c>
-      <c r="R61" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9999999999936336E-3</v>
-      </c>
-      <c r="S61" s="7">
-        <f t="shared" si="2"/>
-        <v>4.5474735088646413E-15</v>
-      </c>
-      <c r="T61" s="7">
-        <f t="shared" si="2"/>
-        <v>-5.2295945351943373E-15</v>
-      </c>
-      <c r="U61" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="7">
-        <f t="shared" si="2"/>
-        <v>-3.637978807091713E-15</v>
-      </c>
-      <c r="X61" s="7">
-        <f t="shared" si="2"/>
-        <v>7.2759576141834261E-15</v>
-      </c>
-      <c r="Y61" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P62" s="7">
-        <f t="shared" ref="P62:Y62" si="3">$O$60*P51</f>
-        <v>-1.4551915228366852E-14</v>
-      </c>
-      <c r="Q62" s="7">
+      <c r="U60" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R62" s="7">
+      <c r="V60" s="6">
         <f t="shared" si="3"/>
+        <v>-9.0949470177292826E-16</v>
+      </c>
+      <c r="W60" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="0"/>
+        <v>291.81419688203692</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0141968820369129</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" ref="P61:Y61" si="4">$O$60*P50</f>
+        <v>-1.4551915228366852E-14</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" si="4"/>
+        <v>3.637978807091713E-15</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9999999999936336E-3</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" si="4"/>
+        <v>4.5474735088646413E-15</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" si="4"/>
+        <v>-5.2295945351943373E-15</v>
+      </c>
+      <c r="U61" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="6">
+        <f t="shared" si="4"/>
+        <v>-3.637978807091713E-15</v>
+      </c>
+      <c r="X61" s="6">
+        <f t="shared" si="4"/>
+        <v>7.2759576141834261E-15</v>
+      </c>
+      <c r="Y61" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="0"/>
+        <v>291.10002102028591</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6999789797141034</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" ref="P62:Y62" si="5">$O$60*P51</f>
+        <v>-1.4551915228366852E-14</v>
+      </c>
+      <c r="Q62" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="6">
+        <f t="shared" si="5"/>
         <v>1.8189894035458565E-15</v>
       </c>
-      <c r="S62" s="7">
-        <f t="shared" si="3"/>
+      <c r="S62" s="6">
+        <f t="shared" si="5"/>
         <v>1.9999999999963619E-3</v>
       </c>
-      <c r="T62" s="7">
-        <f t="shared" si="3"/>
+      <c r="T62" s="6">
+        <f t="shared" si="5"/>
         <v>1.5916157281026244E-15</v>
       </c>
-      <c r="U62" s="7">
-        <f t="shared" si="3"/>
+      <c r="U62" s="6">
+        <f t="shared" si="5"/>
         <v>-5.4569682106375695E-15</v>
       </c>
-      <c r="V62" s="7">
-        <f t="shared" si="3"/>
+      <c r="V62" s="6">
+        <f t="shared" si="5"/>
         <v>4.5474735088646413E-15</v>
       </c>
-      <c r="W62" s="7">
-        <f t="shared" si="3"/>
+      <c r="W62" s="6">
+        <f t="shared" si="5"/>
         <v>1.8189894035458565E-15</v>
       </c>
-      <c r="X62" s="7">
-        <f t="shared" si="3"/>
+      <c r="X62" s="6">
+        <f t="shared" si="5"/>
         <v>7.2759576141834261E-15</v>
       </c>
-      <c r="Y62" s="7">
-        <f t="shared" si="3"/>
+      <c r="Y62" s="6">
+        <f t="shared" si="5"/>
         <v>-3.637978807091713E-15</v>
       </c>
     </row>
-    <row r="63" spans="14:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="0"/>
+        <v>296.18020803428055</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.78020803428057661</v>
+      </c>
       <c r="O63" t="s">
         <v>48</v>
       </c>
-      <c r="P63" s="7">
-        <f t="shared" ref="P63:Y63" si="4">$O$60*P52</f>
+      <c r="P63" s="6">
+        <f t="shared" ref="P63:Y63" si="6">$O$60*P52</f>
         <v>-2.9103830456733704E-14</v>
       </c>
-      <c r="Q63" s="7">
-        <f t="shared" si="4"/>
+      <c r="Q63" s="6">
+        <f t="shared" si="6"/>
         <v>4.5474735088646413E-15</v>
       </c>
-      <c r="R63" s="7">
-        <f t="shared" si="4"/>
+      <c r="R63" s="6">
+        <f t="shared" si="6"/>
         <v>-4.5474735088646413E-15</v>
       </c>
-      <c r="S63" s="7">
-        <f t="shared" si="4"/>
+      <c r="S63" s="6">
+        <f t="shared" si="6"/>
         <v>2.7284841053187848E-15</v>
       </c>
-      <c r="T63" s="7">
-        <f t="shared" si="4"/>
+      <c r="T63" s="6">
+        <f t="shared" si="6"/>
         <v>1.9999999999988634E-3</v>
       </c>
-      <c r="U63" s="7">
-        <f t="shared" si="4"/>
-        <v>9.0949470177292826E-16</v>
-      </c>
-      <c r="V63" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.8189894035458565E-15</v>
-      </c>
-      <c r="X63" s="7">
-        <f t="shared" si="4"/>
-        <v>1.4551915228366852E-14</v>
-      </c>
-      <c r="Y63" s="7">
-        <f t="shared" si="4"/>
-        <v>-7.2759576141834261E-15</v>
-      </c>
-    </row>
-    <row r="64" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="P64" s="7">
-        <f t="shared" ref="P64:Y64" si="5">$O$60*P53</f>
-        <v>5.8207660913467408E-14</v>
-      </c>
-      <c r="Q64" s="7">
-        <f t="shared" si="5"/>
-        <v>-9.0949470177292826E-16</v>
-      </c>
-      <c r="R64" s="7">
-        <f t="shared" si="5"/>
-        <v>9.0949470177292826E-16</v>
-      </c>
-      <c r="S64" s="7">
-        <f t="shared" si="5"/>
-        <v>-9.0949470177292826E-16</v>
-      </c>
-      <c r="T64" s="7">
-        <f t="shared" si="5"/>
-        <v>-2.5011104298755525E-15</v>
-      </c>
-      <c r="U64" s="7">
-        <f t="shared" si="5"/>
-        <v>2.0000000000009095E-3</v>
-      </c>
-      <c r="V64" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="7">
-        <f t="shared" si="5"/>
-        <v>-3.637978807091713E-15</v>
-      </c>
-      <c r="X64" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="7">
-        <f t="shared" si="5"/>
-        <v>3.637978807091713E-15</v>
-      </c>
-    </row>
-    <row r="65" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P65" s="7">
-        <f t="shared" ref="P65:Y65" si="6">$O$60*P54</f>
-        <v>5.8207660913467408E-14</v>
-      </c>
-      <c r="Q65" s="7">
+      <c r="U63" s="6">
         <f t="shared" si="6"/>
         <v>9.0949470177292826E-16</v>
       </c>
-      <c r="R65" s="7">
+      <c r="V63" s="6">
         <f t="shared" si="6"/>
-        <v>-2.7284841053187848E-15</v>
-      </c>
-      <c r="S65" s="7">
+        <v>0</v>
+      </c>
+      <c r="W63" s="6">
         <f t="shared" si="6"/>
-        <v>2.7284841053187848E-15</v>
-      </c>
-      <c r="T65" s="7">
+        <v>-1.8189894035458565E-15</v>
+      </c>
+      <c r="X63" s="6">
         <f t="shared" si="6"/>
-        <v>-5.002220859751105E-15</v>
-      </c>
-      <c r="U65" s="7">
-        <f t="shared" si="6"/>
-        <v>4.5474735088646413E-15</v>
-      </c>
-      <c r="V65" s="7">
-        <f t="shared" si="6"/>
-        <v>1.9999999999954525E-3</v>
-      </c>
-      <c r="W65" s="7">
-        <f t="shared" si="6"/>
-        <v>7.2759576141834261E-15</v>
-      </c>
-      <c r="X65" s="7">
+        <v>1.4551915228366852E-14</v>
+      </c>
+      <c r="Y63" s="6">
         <f t="shared" si="6"/>
         <v>-7.2759576141834261E-15</v>
       </c>
-      <c r="Y65" s="7">
-        <f t="shared" si="6"/>
-        <v>7.2759576141834261E-15</v>
-      </c>
-    </row>
-    <row r="66" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P66" s="7">
-        <f t="shared" ref="P66:Y66" si="7">$O$60*P55</f>
-        <v>2.9103830456733704E-14</v>
-      </c>
-      <c r="Q66" s="7">
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="0"/>
+        <v>297.94359168620184</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5564083137981584</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" ref="P64:Y64" si="7">$O$60*P53</f>
+        <v>5.8207660913467408E-14</v>
+      </c>
+      <c r="Q64" s="6">
         <f t="shared" si="7"/>
-        <v>-2.7284841053187848E-15</v>
-      </c>
-      <c r="R66" s="7">
+        <v>-9.0949470177292826E-16</v>
+      </c>
+      <c r="R64" s="6">
         <f t="shared" si="7"/>
-        <v>4.5474735088646413E-15</v>
-      </c>
-      <c r="S66" s="7">
+        <v>9.0949470177292826E-16</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" si="7"/>
+        <v>-9.0949470177292826E-16</v>
+      </c>
+      <c r="T64" s="6">
+        <f t="shared" si="7"/>
+        <v>-2.5011104298755525E-15</v>
+      </c>
+      <c r="U64" s="6">
+        <f t="shared" si="7"/>
+        <v>2.0000000000009095E-3</v>
+      </c>
+      <c r="V64" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T66" s="7">
+      <c r="W64" s="6">
         <f t="shared" si="7"/>
-        <v>-2.0463630789890888E-15</v>
-      </c>
-      <c r="U66" s="7">
+        <v>-3.637978807091713E-15</v>
+      </c>
+      <c r="X64" s="6">
         <f t="shared" si="7"/>
-        <v>-4.5474735088646413E-15</v>
-      </c>
-      <c r="V66" s="7">
-        <f t="shared" si="7"/>
-        <v>1.8189894035458565E-15</v>
-      </c>
-      <c r="W66" s="7">
-        <f t="shared" si="7"/>
-        <v>2.000000000005457E-3</v>
-      </c>
-      <c r="X66" s="7">
-        <f t="shared" si="7"/>
-        <v>7.2759576141834261E-15</v>
-      </c>
-      <c r="Y66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="6">
         <f t="shared" si="7"/>
         <v>3.637978807091713E-15</v>
       </c>
     </row>
-    <row r="67" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P67" s="7">
-        <f t="shared" ref="P67:Y68" si="8">$O$60*P56</f>
-        <v>1.4551915228366852E-14</v>
-      </c>
-      <c r="Q67" s="7">
-        <f t="shared" si="8"/>
-        <v>-9.0949470177292826E-16</v>
-      </c>
-      <c r="R67" s="7">
-        <f t="shared" si="8"/>
-        <v>-9.0949470177292826E-16</v>
-      </c>
-      <c r="S67" s="7">
-        <f t="shared" si="8"/>
-        <v>3.637978807091713E-15</v>
-      </c>
-      <c r="T67" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.955857780762017E-15</v>
-      </c>
-      <c r="U67" s="7">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="0"/>
+        <v>297.90941505818438</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69058494181564356</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" ref="P65:Y65" si="8">$O$60*P54</f>
+        <v>5.8207660913467408E-14</v>
+      </c>
+      <c r="Q65" s="6">
         <f t="shared" si="8"/>
         <v>9.0949470177292826E-16</v>
       </c>
-      <c r="V67" s="7">
+      <c r="R65" s="6">
+        <f t="shared" si="8"/>
+        <v>-2.7284841053187848E-15</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" si="8"/>
+        <v>2.7284841053187848E-15</v>
+      </c>
+      <c r="T65" s="6">
+        <f t="shared" si="8"/>
+        <v>-5.002220859751105E-15</v>
+      </c>
+      <c r="U65" s="6">
         <f t="shared" si="8"/>
         <v>4.5474735088646413E-15</v>
       </c>
-      <c r="W67" s="7">
+      <c r="V65" s="6">
         <f t="shared" si="8"/>
-        <v>9.0949470177292826E-15</v>
-      </c>
-      <c r="X67" s="7">
+        <v>1.9999999999954525E-3</v>
+      </c>
+      <c r="W65" s="6">
         <f t="shared" si="8"/>
-        <v>2E-3</v>
-      </c>
-      <c r="Y67" s="7">
+        <v>7.2759576141834261E-15</v>
+      </c>
+      <c r="X65" s="6">
         <f t="shared" si="8"/>
         <v>-7.2759576141834261E-15</v>
       </c>
-    </row>
-    <row r="68" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P68" s="7">
+      <c r="Y65" s="6">
         <f t="shared" si="8"/>
+        <v>7.2759576141834261E-15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>28</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="0"/>
+        <v>296.64125543054479</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9587445694552343</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" ref="P66:Y66" si="9">$O$60*P55</f>
+        <v>2.9103830456733704E-14</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" si="9"/>
+        <v>-2.7284841053187848E-15</v>
+      </c>
+      <c r="R66" s="6">
+        <f t="shared" si="9"/>
+        <v>4.5474735088646413E-15</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <f t="shared" si="9"/>
+        <v>-2.0463630789890888E-15</v>
+      </c>
+      <c r="U66" s="6">
+        <f t="shared" si="9"/>
+        <v>-4.5474735088646413E-15</v>
+      </c>
+      <c r="V66" s="6">
+        <f t="shared" si="9"/>
+        <v>1.8189894035458565E-15</v>
+      </c>
+      <c r="W66" s="6">
+        <f t="shared" si="9"/>
+        <v>2.000000000005457E-3</v>
+      </c>
+      <c r="X66" s="6">
+        <f t="shared" si="9"/>
+        <v>7.2759576141834261E-15</v>
+      </c>
+      <c r="Y66" s="6">
+        <f t="shared" si="9"/>
+        <v>3.637978807091713E-15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>29</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="0"/>
+        <v>295.00513935830674</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9948606416932648</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4.0581447173874654</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" ref="P67:Y68" si="10">$O$60*P56</f>
         <v>1.4551915228366852E-14</v>
       </c>
-      <c r="Q68" s="7">
-        <f t="shared" si="8"/>
+      <c r="Q67" s="6">
+        <f t="shared" si="10"/>
+        <v>-9.0949470177292826E-16</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" si="10"/>
+        <v>-9.0949470177292826E-16</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" si="10"/>
+        <v>3.637978807091713E-15</v>
+      </c>
+      <c r="T67" s="6">
+        <f t="shared" si="10"/>
+        <v>-2.955857780762017E-15</v>
+      </c>
+      <c r="U67" s="6">
+        <f t="shared" si="10"/>
+        <v>9.0949470177292826E-16</v>
+      </c>
+      <c r="V67" s="6">
+        <f t="shared" si="10"/>
+        <v>4.5474735088646413E-15</v>
+      </c>
+      <c r="W67" s="6">
+        <f t="shared" si="10"/>
+        <v>9.0949470177292826E-15</v>
+      </c>
+      <c r="X67" s="6">
+        <f t="shared" si="10"/>
+        <v>2E-3</v>
+      </c>
+      <c r="Y67" s="6">
+        <f t="shared" si="10"/>
+        <v>-7.2759576141834261E-15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68" s="3">
+        <f>$C$35+$D$35*D33+$E$35*E33+$F$35*F33+$G$35*G33+$H$35*H33+$I$35*I33+$J$35*J33+$K$35*K33+$L$35*L33</f>
+        <v>299.79713024000245</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8028697599975771</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="3">
+        <f>SUMSQ(C39:C68)/(COUNT(C39:C68)-COUNT(P37:P46))</f>
+        <v>4.058177257553111</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="10"/>
+        <v>1.4551915228366852E-14</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R68" s="7">
-        <f t="shared" si="8"/>
+      <c r="R68" s="6">
+        <f t="shared" si="10"/>
         <v>-2.7284841053187848E-15</v>
       </c>
-      <c r="S68" s="7">
-        <f t="shared" si="8"/>
+      <c r="S68" s="6">
+        <f t="shared" si="10"/>
         <v>2.7284841053187848E-15</v>
       </c>
-      <c r="T68" s="7">
-        <f t="shared" si="8"/>
+      <c r="T68" s="6">
+        <f t="shared" si="10"/>
         <v>-6.8212102632969619E-16</v>
       </c>
-      <c r="U68" s="7">
-        <f t="shared" si="8"/>
+      <c r="U68" s="6">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V68" s="7">
-        <f t="shared" si="8"/>
+      <c r="V68" s="6">
+        <f t="shared" si="10"/>
         <v>-1.8189894035458565E-15</v>
       </c>
-      <c r="W68" s="7">
-        <f t="shared" si="8"/>
+      <c r="W68" s="6">
+        <f t="shared" si="10"/>
         <v>3.637978807091713E-15</v>
       </c>
-      <c r="X68" s="7">
-        <f t="shared" si="8"/>
+      <c r="X68" s="6">
+        <f t="shared" si="10"/>
         <v>-7.2759576141834261E-15</v>
       </c>
-      <c r="Y68" s="7">
-        <f t="shared" si="8"/>
+      <c r="Y68" s="6">
+        <f t="shared" si="10"/>
         <v>1.9999999999963619E-3</v>
       </c>
     </row>
-    <row r="70" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P70" s="7">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P70" s="6">
         <f>P59+P3</f>
         <v>30.001999999999999</v>
       </c>
-      <c r="Q70" s="7">
-        <f t="shared" ref="Q70:Y70" si="9">Q59+Q3</f>
+      <c r="Q70" s="6">
+        <f t="shared" ref="Q70:Y70" si="11">Q59+Q3</f>
         <v>8800</v>
       </c>
-      <c r="R70" s="7">
-        <f t="shared" si="9"/>
+      <c r="R70" s="6">
+        <f t="shared" si="11"/>
         <v>8731.1</v>
       </c>
-      <c r="S70" s="7">
-        <f t="shared" si="9"/>
+      <c r="S70" s="6">
+        <f t="shared" si="11"/>
         <v>8668.6</v>
       </c>
-      <c r="T70" s="7">
-        <f t="shared" si="9"/>
+      <c r="T70" s="6">
+        <f t="shared" si="11"/>
         <v>8604.6</v>
       </c>
-      <c r="U70" s="7">
-        <f t="shared" si="9"/>
+      <c r="U70" s="6">
+        <f t="shared" si="11"/>
         <v>8536.9000000000015</v>
       </c>
-      <c r="V70" s="7">
-        <f t="shared" si="9"/>
+      <c r="V70" s="6">
+        <f t="shared" si="11"/>
         <v>8465.4000000000015</v>
       </c>
-      <c r="W70" s="7">
-        <f t="shared" si="9"/>
+      <c r="W70" s="6">
+        <f t="shared" si="11"/>
         <v>8385.7000000000025</v>
       </c>
-      <c r="X70" s="7">
-        <f t="shared" si="9"/>
+      <c r="X70" s="6">
+        <f t="shared" si="11"/>
         <v>8313.4000000000015</v>
       </c>
-      <c r="Y70" s="7">
-        <f t="shared" si="9"/>
+      <c r="Y70" s="6">
+        <f t="shared" si="11"/>
         <v>8240.2000000000007</v>
       </c>
     </row>
-    <row r="71" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P71" s="7">
-        <f t="shared" ref="P71:Y71" si="10">P60+P4</f>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P71" s="6">
+        <f t="shared" ref="P71:Y71" si="12">P60+P4</f>
         <v>8800</v>
       </c>
-      <c r="Q71" s="7">
-        <f t="shared" si="10"/>
+      <c r="Q71" s="6">
+        <f t="shared" si="12"/>
         <v>2595020.0019999994</v>
       </c>
-      <c r="R71" s="7">
-        <f t="shared" si="10"/>
+      <c r="R71" s="6">
+        <f t="shared" si="12"/>
         <v>2574738.0199999996</v>
       </c>
-      <c r="S71" s="7">
-        <f t="shared" si="10"/>
-        <v>2556415.5599999996</v>
-      </c>
-      <c r="T71" s="7">
-        <f t="shared" si="10"/>
-        <v>2537451.0100000002</v>
-      </c>
-      <c r="U71" s="7">
-        <f t="shared" si="10"/>
-        <v>2517271.1999999997</v>
-      </c>
-      <c r="V71" s="7">
-        <f t="shared" si="10"/>
-        <v>2496115.89</v>
-      </c>
-      <c r="W71" s="7">
-        <f t="shared" si="10"/>
-        <v>2472357.4899999993</v>
-      </c>
-      <c r="X71" s="7">
-        <f t="shared" si="10"/>
-        <v>2451185.8600000003</v>
-      </c>
-      <c r="Y71" s="7">
-        <f t="shared" si="10"/>
-        <v>2429851.2600000007</v>
-      </c>
-    </row>
-    <row r="72" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P72" s="7">
-        <f t="shared" ref="P72:Y72" si="11">P61+P5</f>
-        <v>8731.1</v>
-      </c>
-      <c r="Q72" s="7">
-        <f t="shared" si="11"/>
-        <v>2574738.0199999996</v>
-      </c>
-      <c r="R72" s="7">
-        <f t="shared" si="11"/>
-        <v>2555009.7719999989</v>
-      </c>
-      <c r="S72" s="7">
-        <f t="shared" si="11"/>
-        <v>2536806.5099999993</v>
-      </c>
-      <c r="T72" s="7">
-        <f t="shared" si="11"/>
-        <v>2517983.0699999994</v>
-      </c>
-      <c r="U72" s="7">
-        <f t="shared" si="11"/>
-        <v>2498009.6800000002</v>
-      </c>
-      <c r="V72" s="7">
-        <f t="shared" si="11"/>
-        <v>2476905.6799999997</v>
-      </c>
-      <c r="W72" s="7">
-        <f t="shared" si="11"/>
-        <v>2453293.71</v>
-      </c>
-      <c r="X72" s="7">
-        <f t="shared" si="11"/>
-        <v>2432276.4399999995</v>
-      </c>
-      <c r="Y72" s="7">
-        <f t="shared" si="11"/>
-        <v>2411005.41</v>
-      </c>
-    </row>
-    <row r="73" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P73" s="7">
-        <f t="shared" ref="P73:Y73" si="12">P62+P6</f>
-        <v>8668.6</v>
-      </c>
-      <c r="Q73" s="7">
+      <c r="S71" s="6">
         <f t="shared" si="12"/>
         <v>2556415.5599999996</v>
       </c>
-      <c r="R73" s="7">
+      <c r="T71" s="6">
         <f t="shared" si="12"/>
+        <v>2537451.0100000002</v>
+      </c>
+      <c r="U71" s="6">
+        <f t="shared" si="12"/>
+        <v>2517271.1999999997</v>
+      </c>
+      <c r="V71" s="6">
+        <f t="shared" si="12"/>
+        <v>2496115.89</v>
+      </c>
+      <c r="W71" s="6">
+        <f t="shared" si="12"/>
+        <v>2472357.4899999993</v>
+      </c>
+      <c r="X71" s="6">
+        <f t="shared" si="12"/>
+        <v>2451185.8600000003</v>
+      </c>
+      <c r="Y71" s="6">
+        <f t="shared" si="12"/>
+        <v>2429851.2600000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P72" s="6">
+        <f t="shared" ref="P72:Y72" si="13">P61+P5</f>
+        <v>8731.1</v>
+      </c>
+      <c r="Q72" s="6">
+        <f t="shared" si="13"/>
+        <v>2574738.0199999996</v>
+      </c>
+      <c r="R72" s="6">
+        <f t="shared" si="13"/>
+        <v>2555009.7719999989</v>
+      </c>
+      <c r="S72" s="6">
+        <f t="shared" si="13"/>
         <v>2536806.5099999993</v>
       </c>
-      <c r="S73" s="7">
-        <f t="shared" si="12"/>
+      <c r="T72" s="6">
+        <f t="shared" si="13"/>
+        <v>2517983.0699999994</v>
+      </c>
+      <c r="U72" s="6">
+        <f t="shared" si="13"/>
+        <v>2498009.6800000002</v>
+      </c>
+      <c r="V72" s="6">
+        <f t="shared" si="13"/>
+        <v>2476905.6799999997</v>
+      </c>
+      <c r="W72" s="6">
+        <f t="shared" si="13"/>
+        <v>2453293.71</v>
+      </c>
+      <c r="X72" s="6">
+        <f t="shared" si="13"/>
+        <v>2432276.4399999995</v>
+      </c>
+      <c r="Y72" s="6">
+        <f t="shared" si="13"/>
+        <v>2411005.41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P73" s="6">
+        <f t="shared" ref="P73:Y73" si="14">P62+P6</f>
+        <v>8668.6</v>
+      </c>
+      <c r="Q73" s="6">
+        <f t="shared" si="14"/>
+        <v>2556415.5599999996</v>
+      </c>
+      <c r="R73" s="6">
+        <f t="shared" si="14"/>
+        <v>2536806.5099999993</v>
+      </c>
+      <c r="S73" s="6">
+        <f t="shared" si="14"/>
         <v>2519116.0219999994</v>
       </c>
-      <c r="T73" s="7">
-        <f t="shared" si="12"/>
+      <c r="T73" s="6">
+        <f t="shared" si="14"/>
         <v>2500422.6599999992</v>
       </c>
-      <c r="U73" s="7">
-        <f t="shared" si="12"/>
+      <c r="U73" s="6">
+        <f t="shared" si="14"/>
         <v>2480596.1399999997</v>
       </c>
-      <c r="V73" s="7">
-        <f t="shared" si="12"/>
+      <c r="V73" s="6">
+        <f t="shared" si="14"/>
         <v>2459694.0800000001</v>
       </c>
-      <c r="W73" s="7">
-        <f t="shared" si="12"/>
+      <c r="W73" s="6">
+        <f t="shared" si="14"/>
         <v>2436166.6999999993</v>
       </c>
-      <c r="X73" s="7">
-        <f t="shared" si="12"/>
+      <c r="X73" s="6">
+        <f t="shared" si="14"/>
         <v>2415217.14</v>
       </c>
-      <c r="Y73" s="7">
-        <f t="shared" si="12"/>
+      <c r="Y73" s="6">
+        <f t="shared" si="14"/>
         <v>2394088.3099999996</v>
       </c>
     </row>
-    <row r="74" spans="15:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="O74" t="s">
         <v>50</v>
       </c>
-      <c r="P74" s="7">
-        <f t="shared" ref="P74:Y74" si="13">P63+P7</f>
+      <c r="P74" s="6">
+        <f t="shared" ref="P74:Y74" si="15">P63+P7</f>
         <v>8604.6</v>
       </c>
-      <c r="Q74" s="7">
-        <f t="shared" si="13"/>
+      <c r="Q74" s="6">
+        <f t="shared" si="15"/>
         <v>2537451.0100000002</v>
       </c>
-      <c r="R74" s="7">
-        <f t="shared" si="13"/>
+      <c r="R74" s="6">
+        <f t="shared" si="15"/>
         <v>2517983.0699999994</v>
       </c>
-      <c r="S74" s="7">
-        <f t="shared" si="13"/>
+      <c r="S74" s="6">
+        <f t="shared" si="15"/>
         <v>2500422.6599999992</v>
       </c>
-      <c r="T74" s="7">
-        <f t="shared" si="13"/>
+      <c r="T74" s="6">
+        <f t="shared" si="15"/>
         <v>2482239.2219999991</v>
       </c>
-      <c r="U74" s="7">
-        <f t="shared" si="13"/>
+      <c r="U74" s="6">
+        <f t="shared" si="15"/>
         <v>2462540.69</v>
       </c>
-      <c r="V74" s="7">
-        <f t="shared" si="13"/>
-        <v>2441785.7899999996</v>
-      </c>
-      <c r="W74" s="7">
-        <f t="shared" si="13"/>
-        <v>2418450.9100000006</v>
-      </c>
-      <c r="X74" s="7">
-        <f t="shared" si="13"/>
-        <v>2397605.87</v>
-      </c>
-      <c r="Y74" s="7">
-        <f t="shared" si="13"/>
-        <v>2376547.42</v>
-      </c>
-    </row>
-    <row r="75" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P75" s="7">
-        <f t="shared" ref="P75:Y75" si="14">P64+P8</f>
-        <v>8536.9000000000015</v>
-      </c>
-      <c r="Q75" s="7">
-        <f t="shared" si="14"/>
-        <v>2517271.1999999997</v>
-      </c>
-      <c r="R75" s="7">
-        <f t="shared" si="14"/>
-        <v>2498009.6800000002</v>
-      </c>
-      <c r="S75" s="7">
-        <f t="shared" si="14"/>
-        <v>2480596.1399999997</v>
-      </c>
-      <c r="T75" s="7">
-        <f t="shared" si="14"/>
-        <v>2462540.69</v>
-      </c>
-      <c r="U75" s="7">
-        <f t="shared" si="14"/>
-        <v>2443359.1119999993</v>
-      </c>
-      <c r="V75" s="7">
-        <f t="shared" si="14"/>
-        <v>2422745.4300000002</v>
-      </c>
-      <c r="W75" s="7">
-        <f t="shared" si="14"/>
-        <v>2399561.4300000002</v>
-      </c>
-      <c r="X75" s="7">
-        <f t="shared" si="14"/>
-        <v>2378933.6800000002</v>
-      </c>
-      <c r="Y75" s="7">
-        <f t="shared" si="14"/>
-        <v>2357989.3000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P76" s="7">
-        <f t="shared" ref="P76:Y76" si="15">P65+P9</f>
-        <v>8465.4000000000015</v>
-      </c>
-      <c r="Q76" s="7">
-        <f t="shared" si="15"/>
-        <v>2496115.89</v>
-      </c>
-      <c r="R76" s="7">
-        <f t="shared" si="15"/>
-        <v>2476905.6799999997</v>
-      </c>
-      <c r="S76" s="7">
-        <f t="shared" si="15"/>
-        <v>2459694.0800000001</v>
-      </c>
-      <c r="T76" s="7">
+      <c r="V74" s="6">
         <f t="shared" si="15"/>
         <v>2441785.7899999996</v>
       </c>
-      <c r="U76" s="7">
+      <c r="W74" s="6">
         <f t="shared" si="15"/>
+        <v>2418450.9100000006</v>
+      </c>
+      <c r="X74" s="6">
+        <f t="shared" si="15"/>
+        <v>2397605.87</v>
+      </c>
+      <c r="Y74" s="6">
+        <f t="shared" si="15"/>
+        <v>2376547.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P75" s="6">
+        <f t="shared" ref="P75:Y75" si="16">P64+P8</f>
+        <v>8536.9000000000015</v>
+      </c>
+      <c r="Q75" s="6">
+        <f t="shared" si="16"/>
+        <v>2517271.1999999997</v>
+      </c>
+      <c r="R75" s="6">
+        <f t="shared" si="16"/>
+        <v>2498009.6800000002</v>
+      </c>
+      <c r="S75" s="6">
+        <f t="shared" si="16"/>
+        <v>2480596.1399999997</v>
+      </c>
+      <c r="T75" s="6">
+        <f t="shared" si="16"/>
+        <v>2462540.69</v>
+      </c>
+      <c r="U75" s="6">
+        <f t="shared" si="16"/>
+        <v>2443359.1119999993</v>
+      </c>
+      <c r="V75" s="6">
+        <f t="shared" si="16"/>
         <v>2422745.4300000002</v>
       </c>
-      <c r="V76" s="7">
-        <f t="shared" si="15"/>
-        <v>2402668.4619999989</v>
-      </c>
-      <c r="W76" s="7">
-        <f t="shared" si="15"/>
-        <v>2379642.8200000003</v>
-      </c>
-      <c r="X76" s="7">
-        <f t="shared" si="15"/>
-        <v>2359179.3899999997</v>
-      </c>
-      <c r="Y76" s="7">
-        <f t="shared" si="15"/>
-        <v>2338463.5699999998</v>
-      </c>
-    </row>
-    <row r="77" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P77" s="7">
-        <f t="shared" ref="P77:Y77" si="16">P66+P10</f>
-        <v>8385.7000000000025</v>
-      </c>
-      <c r="Q77" s="7">
-        <f t="shared" si="16"/>
-        <v>2472357.4899999993</v>
-      </c>
-      <c r="R77" s="7">
-        <f t="shared" si="16"/>
-        <v>2453293.71</v>
-      </c>
-      <c r="S77" s="7">
-        <f t="shared" si="16"/>
-        <v>2436166.6999999993</v>
-      </c>
-      <c r="T77" s="7">
-        <f t="shared" si="16"/>
-        <v>2418450.9100000006</v>
-      </c>
-      <c r="U77" s="7">
+      <c r="W75" s="6">
         <f t="shared" si="16"/>
         <v>2399561.4300000002</v>
       </c>
-      <c r="V77" s="7">
+      <c r="X75" s="6">
         <f t="shared" si="16"/>
+        <v>2378933.6800000002</v>
+      </c>
+      <c r="Y75" s="6">
+        <f t="shared" si="16"/>
+        <v>2357989.3000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P76" s="6">
+        <f t="shared" ref="P76:Y76" si="17">P65+P9</f>
+        <v>8465.4000000000015</v>
+      </c>
+      <c r="Q76" s="6">
+        <f t="shared" si="17"/>
+        <v>2496115.89</v>
+      </c>
+      <c r="R76" s="6">
+        <f t="shared" si="17"/>
+        <v>2476905.6799999997</v>
+      </c>
+      <c r="S76" s="6">
+        <f t="shared" si="17"/>
+        <v>2459694.0800000001</v>
+      </c>
+      <c r="T76" s="6">
+        <f t="shared" si="17"/>
+        <v>2441785.7899999996</v>
+      </c>
+      <c r="U76" s="6">
+        <f t="shared" si="17"/>
+        <v>2422745.4300000002</v>
+      </c>
+      <c r="V76" s="6">
+        <f t="shared" si="17"/>
+        <v>2402668.4619999989</v>
+      </c>
+      <c r="W76" s="6">
+        <f t="shared" si="17"/>
         <v>2379642.8200000003</v>
       </c>
-      <c r="W77" s="7">
-        <f t="shared" si="16"/>
-        <v>2357135.8519999995</v>
-      </c>
-      <c r="X77" s="7">
-        <f t="shared" si="16"/>
-        <v>2336909.44</v>
-      </c>
-      <c r="Y77" s="7">
-        <f t="shared" si="16"/>
-        <v>2316376.2199999997</v>
-      </c>
-    </row>
-    <row r="78" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P78" s="7">
-        <f t="shared" ref="P78:Y78" si="17">P67+P11</f>
-        <v>8313.4000000000015</v>
-      </c>
-      <c r="Q78" s="7">
-        <f t="shared" si="17"/>
-        <v>2451185.8600000003</v>
-      </c>
-      <c r="R78" s="7">
-        <f t="shared" si="17"/>
-        <v>2432276.4399999995</v>
-      </c>
-      <c r="S78" s="7">
-        <f t="shared" si="17"/>
-        <v>2415217.14</v>
-      </c>
-      <c r="T78" s="7">
-        <f t="shared" si="17"/>
-        <v>2397605.87</v>
-      </c>
-      <c r="U78" s="7">
-        <f t="shared" si="17"/>
-        <v>2378933.6800000002</v>
-      </c>
-      <c r="V78" s="7">
+      <c r="X76" s="6">
         <f t="shared" si="17"/>
         <v>2359179.3899999997</v>
       </c>
-      <c r="W78" s="7">
+      <c r="Y76" s="6">
         <f t="shared" si="17"/>
+        <v>2338463.5699999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P77" s="6">
+        <f t="shared" ref="P77:Y77" si="18">P66+P10</f>
+        <v>8385.7000000000025</v>
+      </c>
+      <c r="Q77" s="6">
+        <f t="shared" si="18"/>
+        <v>2472357.4899999993</v>
+      </c>
+      <c r="R77" s="6">
+        <f t="shared" si="18"/>
+        <v>2453293.71</v>
+      </c>
+      <c r="S77" s="6">
+        <f t="shared" si="18"/>
+        <v>2436166.6999999993</v>
+      </c>
+      <c r="T77" s="6">
+        <f t="shared" si="18"/>
+        <v>2418450.9100000006</v>
+      </c>
+      <c r="U77" s="6">
+        <f t="shared" si="18"/>
+        <v>2399561.4300000002</v>
+      </c>
+      <c r="V77" s="6">
+        <f t="shared" si="18"/>
+        <v>2379642.8200000003</v>
+      </c>
+      <c r="W77" s="6">
+        <f t="shared" si="18"/>
+        <v>2357135.8519999995</v>
+      </c>
+      <c r="X77" s="6">
+        <f t="shared" si="18"/>
         <v>2336909.44</v>
       </c>
-      <c r="X78" s="7">
-        <f t="shared" si="17"/>
-        <v>2317074.4219999993</v>
-      </c>
-      <c r="Y78" s="7">
-        <f t="shared" si="17"/>
-        <v>2296768.5699999998</v>
-      </c>
-    </row>
-    <row r="79" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P79" s="7">
-        <f t="shared" ref="P79:Y79" si="18">P68+P12</f>
-        <v>8240.2000000000007</v>
-      </c>
-      <c r="Q79" s="7">
-        <f t="shared" si="18"/>
-        <v>2429851.2600000007</v>
-      </c>
-      <c r="R79" s="7">
-        <f t="shared" si="18"/>
-        <v>2411005.41</v>
-      </c>
-      <c r="S79" s="7">
-        <f t="shared" si="18"/>
-        <v>2394088.3099999996</v>
-      </c>
-      <c r="T79" s="7">
-        <f t="shared" si="18"/>
-        <v>2376547.42</v>
-      </c>
-      <c r="U79" s="7">
-        <f t="shared" si="18"/>
-        <v>2357989.3000000003</v>
-      </c>
-      <c r="V79" s="7">
-        <f t="shared" si="18"/>
-        <v>2338463.5699999998</v>
-      </c>
-      <c r="W79" s="7">
+      <c r="Y77" s="6">
         <f t="shared" si="18"/>
         <v>2316376.2199999997</v>
       </c>
-      <c r="X79" s="7">
-        <f t="shared" si="18"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P78" s="6">
+        <f t="shared" ref="P78:Y79" si="19">P67+P11</f>
+        <v>8313.4000000000015</v>
+      </c>
+      <c r="Q78" s="6">
+        <f t="shared" si="19"/>
+        <v>2451185.8600000003</v>
+      </c>
+      <c r="R78" s="6">
+        <f t="shared" si="19"/>
+        <v>2432276.4399999995</v>
+      </c>
+      <c r="S78" s="6">
+        <f t="shared" si="19"/>
+        <v>2415217.14</v>
+      </c>
+      <c r="T78" s="6">
+        <f t="shared" si="19"/>
+        <v>2397605.87</v>
+      </c>
+      <c r="U78" s="6">
+        <f t="shared" si="19"/>
+        <v>2378933.6800000002</v>
+      </c>
+      <c r="V78" s="6">
+        <f t="shared" si="19"/>
+        <v>2359179.3899999997</v>
+      </c>
+      <c r="W78" s="6">
+        <f t="shared" si="19"/>
+        <v>2336909.44</v>
+      </c>
+      <c r="X78" s="6">
+        <f t="shared" si="19"/>
+        <v>2317074.4219999993</v>
+      </c>
+      <c r="Y78" s="6">
+        <f t="shared" si="19"/>
         <v>2296768.5699999998</v>
       </c>
-      <c r="Y79" s="7">
-        <f t="shared" si="18"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P79" s="6">
+        <f t="shared" si="19"/>
+        <v>8240.2000000000007</v>
+      </c>
+      <c r="Q79" s="6">
+        <f t="shared" si="19"/>
+        <v>2429851.2600000007</v>
+      </c>
+      <c r="R79" s="6">
+        <f t="shared" si="19"/>
+        <v>2411005.41</v>
+      </c>
+      <c r="S79" s="6">
+        <f t="shared" si="19"/>
+        <v>2394088.3099999996</v>
+      </c>
+      <c r="T79" s="6">
+        <f t="shared" si="19"/>
+        <v>2376547.42</v>
+      </c>
+      <c r="U79" s="6">
+        <f t="shared" si="19"/>
+        <v>2357989.3000000003</v>
+      </c>
+      <c r="V79" s="6">
+        <f t="shared" si="19"/>
+        <v>2338463.5699999998</v>
+      </c>
+      <c r="W79" s="6">
+        <f t="shared" si="19"/>
+        <v>2316376.2199999997</v>
+      </c>
+      <c r="X79" s="6">
+        <f t="shared" si="19"/>
+        <v>2296768.5699999998</v>
+      </c>
+      <c r="Y79" s="6">
+        <f t="shared" si="19"/>
         <v>2276858.3419999992</v>
       </c>
     </row>
-    <row r="80" spans="15:25" x14ac:dyDescent="0.35">
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
     </row>
     <row r="81" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P81">
@@ -5390,53 +7828,67 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lambdas!$C$3:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>O60</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="8" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1E-3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>1.4E-3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2E-3</v>
       </c>
     </row>
@@ -5658,33 +8110,114 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11">
-        <f>SUM(C4:C12)</f>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:H13" si="0">SUM(C4:C12)</f>
         <v>0.91938801866933773</v>
       </c>
-      <c r="D13" s="11">
-        <f>SUM(D4:D12)</f>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
         <v>0.91941067953177935</v>
       </c>
-      <c r="E13" s="11">
-        <f>SUM(E4:E12)</f>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
         <v>0.91945581858794867</v>
       </c>
-      <c r="F13" s="11">
-        <f>SUM(F4:F12)</f>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
         <v>0.91950071571477565</v>
       </c>
-      <c r="G13" s="11">
-        <f>SUM(G4:G12)</f>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
         <v>0.91954537291906036</v>
       </c>
-      <c r="H13" s="11">
-        <f>SUM(H4:H12)</f>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
         <v>0.91961191294899436</v>
       </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5694,10 +8227,11 @@
   <ignoredErrors>
     <ignoredError sqref="D13 E13:H13" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K78"/>
   <sheetViews>
@@ -5713,28 +8247,28 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="5" t="str">
         <f>'Regressao Ridge'!B3</f>
         <v>C</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="str">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="str">
         <f>'Regressao Ridge'!D3</f>
         <v>Y</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="5" t="str">
         <f>'Regressao Ridge'!E3</f>
         <v>Yt-1</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="5" t="str">
         <f>'Regressao Ridge'!F3</f>
         <v>Yt-2</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="5" t="str">
         <f>'Regressao Ridge'!G3</f>
         <v>Yt-3</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="5" t="str">
         <f>'Regressao Ridge'!H3</f>
         <v>Yt-4</v>
       </c>
@@ -6657,7 +9191,7 @@
       <c r="J54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="7">
         <v>2E-3</v>
       </c>
     </row>
